--- a/doc/layarwiki/progress.xlsx
+++ b/doc/layarwiki/progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445"/>
@@ -183,8 +183,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +223,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -301,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -335,6 +341,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,26 +517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="94.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -557,7 +564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -582,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -593,7 +600,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -604,7 +611,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -618,12 +625,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -637,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -645,13 +652,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -659,13 +666,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -679,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -690,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -698,10 +705,10 @@
         <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -709,7 +716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -723,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -737,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -748,7 +755,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -759,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -770,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -784,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -798,12 +805,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -817,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -831,7 +838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -842,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -856,7 +863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -870,12 +877,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -889,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -903,7 +910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -917,7 +924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -931,12 +938,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -950,17 +957,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>53</v>
       </c>
@@ -971,24 +978,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
